--- a/file/fp_order_page_async_export_1770607694677.xlsx
+++ b/file/fp_order_page_async_export_1770607694677.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRKIDS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Web_App\TR-ERP\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3F5C8C-8D40-4EF4-B4D3-33FB82C49AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68ADC86-47DE-4A03-B30C-4C4A3409A48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1095" yWindow="2535" windowWidth="27960" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>เวลาสร้าง</t>
   </si>
@@ -185,6 +185,15 @@
   </si>
   <si>
     <t>PUMP26020001</t>
+  </si>
+  <si>
+    <t>FBTR26020001</t>
+  </si>
+  <si>
+    <t>FBTR26020002</t>
+  </si>
+  <si>
+    <t>TH67038BGD638B</t>
   </si>
 </sst>
 </file>
@@ -195,7 +204,7 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Aptos Narrow"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -594,10 +603,15 @@
   <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="67.5">
       <c r="A1" s="1" t="s">
@@ -697,7 +711,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" ht="15">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
@@ -705,7 +719,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>34</v>
@@ -789,11 +803,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" ht="15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
